--- a/biology/Biologie cellulaire et moléculaire/Johannes_F._Coy/Johannes_F._Coy.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Johannes_F._Coy/Johannes_F._Coy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Johannes F. Coy (né le 15 décembre 1963 à Otzberg dans l'Odenwald) est un biologiste et cancérologue allemand. Il est le découvreur des gènes TKTL1[1] et DNaseX[2] (Apo10)[3]. Selon les dernières découvertes de la recherche sur l'évolution, TKTL1 est un gène clé qui a déclenché une formation accrue de neurones dans le néocortex et des améliorations structurelles du cerveau par rapport à l'homme de Neandertal, permettant ainsi les performances cognitives de l'homme moderne (Homo sapiens)[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Johannes F. Coy (né le 15 décembre 1963 à Otzberg dans l'Odenwald) est un biologiste et cancérologue allemand. Il est le découvreur des gènes TKTL1 et DNaseX (Apo10). Selon les dernières découvertes de la recherche sur l'évolution, TKTL1 est un gène clé qui a déclenché une formation accrue de neurones dans le néocortex et des améliorations structurelles du cerveau par rapport à l'homme de Neandertal, permettant ainsi les performances cognitives de l'homme moderne (Homo sapiens).
 </t>
         </is>
       </c>
@@ -511,19 +523,21 @@
           <t>Vie et activité scientifique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Johannes Coy a commencé ses études de biologie en 1985 à l'université Eberhard Karl de Tübingen, qu'il a achevées en 1990 en se concentrant sur la génétique moléculaire et humaine ainsi que sur la biochimie. La même année, il a rejoint le Centre allemand de cancérologie (DKFZ) à Heidelberg où, après sa thèse (cartographie d'un gène suppresseur de tumeur dans le neuroblastome), il est devenu membre du projet de recherche Analyse moléculaire du génome dirigé par le professeur Harald zur Hausen, alors directeur du DKFZ et futur lauréat du prix Nobel de médecine.
 Il s'est alors concentré sur l'identification des gènes et a découvert dans ce contexte les deux gènes TKTL1 et DNaseX (Apo10). Sa thèse de doctorat, basée sur la découverte de ces deux gènes, lui a valu une mention summa cum laude en 1996. Sur la base de ses analyses des gènes TKTL1 et DNaseX (Apo10), Coy a conclu que ces deux gènes présentaient un potentiel pour de nouveaux marqueurs diagnostiques du cancer.
-Dans la suite de ses travaux scientifiques, Coy s'est consacré à l'étude globale du métabolisme des cellules tumorales, notamment à l'utilisation des deux gènes pour la détection précoce du cancer sur la base de tests de diagnostic. Il a découvert que la présence simultanée de TKTL1 et de DNaseX (Apo10) dans les macrophages permettait de conclure à la présence d'un cancer[3] et a participé au développement d'un test sanguin permettant de détecter TKTL1 et DNaseX (Apo10) dans les macrophages[3].
-Il a également découvert la voie métabolique de la TKTL1 ainsi que le métabolisme des sucres qui lui est associé et qui permet d'éviter et de réparer les dommages cellulaires[5],[6],[7].
+Dans la suite de ses travaux scientifiques, Coy s'est consacré à l'étude globale du métabolisme des cellules tumorales, notamment à l'utilisation des deux gènes pour la détection précoce du cancer sur la base de tests de diagnostic. Il a découvert que la présence simultanée de TKTL1 et de DNaseX (Apo10) dans les macrophages permettait de conclure à la présence d'un cancer et a participé au développement d'un test sanguin permettant de détecter TKTL1 et DNaseX (Apo10) dans les macrophages.
+Il a également découvert la voie métabolique de la TKTL1 ainsi que le métabolisme des sucres qui lui est associé et qui permet d'éviter et de réparer les dommages cellulaires.
 Parmi les développements diagnostiques de Coy résultant de ses recherches, on peut citer: 
 Détection d'épitopes dans les monocytes (EDIM) - méthode de détection de biomarqueurs dans les cellules du système immunitaire inné dans les échantillons de sang.
 Méthode de cytométrie de flux automatisable
 Tests sanguins basés sur la cytométrie de flux
 Johannes Coy détient plusieurs brevets dans le domaine de la recherche et du diagnostic du cancer, entre autres sur DNaseX et TKTL1 :
-DNA encoding DNase and related vectors, host cells and antibodies (DNaseX)[8].
-Protéine liée à la transcétolase (TKTL1)[9].</t>
+DNA encoding DNase and related vectors, host cells and antibodies (DNaseX).
+Protéine liée à la transcétolase (TKTL1).</t>
         </is>
       </c>
     </row>
@@ -551,7 +565,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">2007 : Prix Waltraut Fryda : décerné lors du congrès international de cancérologie biologique pour l'élucidation du rôle du gène TKTL1 dans le métabolisme de fermentation des cellules cancéreuses.
 2006 : Prix scientifique Diaita : décerné par la Gesellschaft für Ernährungsmedizin und Diätetik e.V. (aujourd'hui Fachgesellschaft für Ernährungstherapie und Prävention (FET) e.V.) lors du salon Medica pour un engagement scientifique exceptionnel dans le domaine de la recherche, du diagnostic et de la thérapie du cancer.
@@ -583,27 +599,29 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2022
-Blood-Test Based Targeted Visualization Enables Early Detection of Premalignant and Malignant Tumors in Asymptomatic Individuals[10].
+Blood-Test Based Targeted Visualization Enables Early Detection of Premalignant and Malignant Tumors in Asymptomatic Individuals.
 2017
-EDIM-TKTL1/Apo10 Blood Test: An Innate Immune System Based Liquid Biopsy for the Early Detection, Characterization and Targeted Treatment of Cancer[3].
+EDIM-TKTL1/Apo10 Blood Test: An Innate Immune System Based Liquid Biopsy for the Early Detection, Characterization and Targeted Treatment of Cancer.
 2016
-A key role for transketolase-like 1 in tumor metabolic reprogramming[5].
+A key role for transketolase-like 1 in tumor metabolic reprogramming.
 2013
-A biomarker based detection and characterization of carcinomas exploiting two fundamental biophysical mechanisms in mammalian cells[11].
+A biomarker based detection and characterization of carcinomas exploiting two fundamental biophysical mechanisms in mammalian cells.
 2009
-Transketolase-like protein 1 (TKTL1) is required for rapid cell growth and full viability of human tumor cells[12].
+Transketolase-like protein 1 (TKTL1) is required for rapid cell growth and full viability of human tumor cells.
 2006
-Expression of transketolase TKTL1 predicts colon and urothelial cancer patient survival. Warburg effect reinterpreted[6].
+Expression of transketolase TKTL1 predicts colon and urothelial cancer patient survival. Warburg effect reinterpreted.
 2005
-Mutations in the transketolase-like gene TKTL1. Clinical implications for neurodegenerative diseases, diabetes and cancer[7].
+Mutations in the transketolase-like gene TKTL1. Clinical implications for neurodegenerative diseases, diabetes and cancer.
 2000
-Functional characterization of DNase X, a novel endonuclease expressed in muscle cells[13].
+Functional characterization of DNase X, a novel endonuclease expressed in muscle cells.
 1996
-Molecular cloning of tissue-specific transcripts of a transketolase-related gene. Implications for the evolution of new vertebrate genes[1].
-Isolation, differential splicing and protein expression of a DNase on the human X chromosome[2].</t>
+Molecular cloning of tissue-specific transcripts of a transketolase-related gene. Implications for the evolution of new vertebrate genes.
+Isolation, differential splicing and protein expression of a DNase on the human X chromosome.</t>
         </is>
       </c>
     </row>
